--- a/data_SRVF_SPHERE/Best_Estimate_5.xlsx
+++ b/data_SRVF_SPHERE/Best_Estimate_5.xlsx
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>B3</t>
+          <t>A3</t>
         </is>
       </c>
     </row>
@@ -450,7 +450,7 @@
         <v>400</v>
       </c>
       <c r="B2" t="n">
-        <v>0.913</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="3">
@@ -458,7 +458,7 @@
         <v>405</v>
       </c>
       <c r="B3" t="n">
-        <v>0.902</v>
+        <v>0.863</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         <v>410</v>
       </c>
       <c r="B4" t="n">
-        <v>0.892</v>
+        <v>0.853</v>
       </c>
     </row>
     <row r="5">
@@ -474,7 +474,7 @@
         <v>415</v>
       </c>
       <c r="B5" t="n">
-        <v>0.882</v>
+        <v>0.844</v>
       </c>
     </row>
     <row r="6">
@@ -482,7 +482,7 @@
         <v>420</v>
       </c>
       <c r="B6" t="n">
-        <v>0.874</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="7">
@@ -490,7 +490,7 @@
         <v>425</v>
       </c>
       <c r="B7" t="n">
-        <v>0.868</v>
+        <v>0.829</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         <v>430</v>
       </c>
       <c r="B8" t="n">
-        <v>0.862</v>
+        <v>0.823</v>
       </c>
     </row>
     <row r="9">
@@ -506,7 +506,7 @@
         <v>435</v>
       </c>
       <c r="B9" t="n">
-        <v>0.857</v>
+        <v>0.8179999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -514,7 +514,7 @@
         <v>440</v>
       </c>
       <c r="B10" t="n">
-        <v>0.852</v>
+        <v>0.8149999999999999</v>
       </c>
     </row>
     <row r="11">
@@ -522,7 +522,7 @@
         <v>445</v>
       </c>
       <c r="B11" t="n">
-        <v>0.85</v>
+        <v>0.8120000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -530,7 +530,7 @@
         <v>450</v>
       </c>
       <c r="B12" t="n">
-        <v>0.85</v>
+        <v>0.8120000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -538,7 +538,7 @@
         <v>455</v>
       </c>
       <c r="B13" t="n">
-        <v>0.852</v>
+        <v>0.8139999999999999</v>
       </c>
     </row>
     <row r="14">
@@ -546,7 +546,7 @@
         <v>460</v>
       </c>
       <c r="B14" t="n">
-        <v>0.856</v>
+        <v>0.8169999999999999</v>
       </c>
     </row>
     <row r="15">
@@ -554,7 +554,7 @@
         <v>465</v>
       </c>
       <c r="B15" t="n">
-        <v>0.864</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="16">
@@ -562,7 +562,7 @@
         <v>470</v>
       </c>
       <c r="B16" t="n">
-        <v>0.876</v>
+        <v>0.835</v>
       </c>
     </row>
     <row r="17">
@@ -570,7 +570,7 @@
         <v>475</v>
       </c>
       <c r="B17" t="n">
-        <v>0.894</v>
+        <v>0.852</v>
       </c>
     </row>
     <row r="18">
@@ -578,7 +578,7 @@
         <v>480</v>
       </c>
       <c r="B18" t="n">
-        <v>0.92</v>
+        <v>0.876</v>
       </c>
     </row>
     <row r="19">
@@ -586,7 +586,7 @@
         <v>485</v>
       </c>
       <c r="B19" t="n">
-        <v>0.954</v>
+        <v>0.907</v>
       </c>
     </row>
     <row r="20">
@@ -594,7 +594,7 @@
         <v>490</v>
       </c>
       <c r="B20" t="n">
-        <v>1.004</v>
+        <v>0.953</v>
       </c>
     </row>
     <row r="21">
@@ -602,7 +602,7 @@
         <v>495</v>
       </c>
       <c r="B21" t="n">
-        <v>1.061</v>
+        <v>1.006</v>
       </c>
     </row>
     <row r="22">
@@ -610,7 +610,7 @@
         <v>500</v>
       </c>
       <c r="B22" t="n">
-        <v>1.133</v>
+        <v>1.073</v>
       </c>
     </row>
     <row r="23">
@@ -618,7 +618,7 @@
         <v>505</v>
       </c>
       <c r="B23" t="n">
-        <v>1.213</v>
+        <v>1.146</v>
       </c>
     </row>
     <row r="24">
@@ -626,7 +626,7 @@
         <v>510</v>
       </c>
       <c r="B24" t="n">
-        <v>1.292</v>
+        <v>1.219</v>
       </c>
     </row>
     <row r="25">
@@ -634,7 +634,7 @@
         <v>515</v>
       </c>
       <c r="B25" t="n">
-        <v>1.36</v>
+        <v>1.279</v>
       </c>
     </row>
     <row r="26">
@@ -642,7 +642,7 @@
         <v>520</v>
       </c>
       <c r="B26" t="n">
-        <v>1.41</v>
+        <v>1.325</v>
       </c>
     </row>
     <row r="27">
@@ -650,7 +650,7 @@
         <v>525</v>
       </c>
       <c r="B27" t="n">
-        <v>1.436</v>
+        <v>1.348</v>
       </c>
     </row>
     <row r="28">
@@ -658,7 +658,7 @@
         <v>530</v>
       </c>
       <c r="B28" t="n">
-        <v>1.436</v>
+        <v>1.347</v>
       </c>
     </row>
     <row r="29">
@@ -666,7 +666,7 @@
         <v>535</v>
       </c>
       <c r="B29" t="n">
-        <v>1.411</v>
+        <v>1.325</v>
       </c>
     </row>
     <row r="30">
@@ -674,7 +674,7 @@
         <v>540</v>
       </c>
       <c r="B30" t="n">
-        <v>1.365</v>
+        <v>1.284</v>
       </c>
     </row>
     <row r="31">
@@ -682,7 +682,7 @@
         <v>545</v>
       </c>
       <c r="B31" t="n">
-        <v>1.31</v>
+        <v>1.235</v>
       </c>
     </row>
     <row r="32">
@@ -690,7 +690,7 @@
         <v>550</v>
       </c>
       <c r="B32" t="n">
-        <v>1.245</v>
+        <v>1.177</v>
       </c>
     </row>
     <row r="33">
@@ -698,7 +698,7 @@
         <v>555</v>
       </c>
       <c r="B33" t="n">
-        <v>1.175</v>
+        <v>1.114</v>
       </c>
     </row>
     <row r="34">
@@ -706,7 +706,7 @@
         <v>560</v>
       </c>
       <c r="B34" t="n">
-        <v>1.103</v>
+        <v>1.051</v>
       </c>
     </row>
     <row r="35">
@@ -714,7 +714,7 @@
         <v>565</v>
       </c>
       <c r="B35" t="n">
-        <v>1.034</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="36">
@@ -722,7 +722,7 @@
         <v>570</v>
       </c>
       <c r="B36" t="n">
-        <v>0.965</v>
+        <v>0.929</v>
       </c>
     </row>
     <row r="37">
@@ -730,7 +730,7 @@
         <v>575</v>
       </c>
       <c r="B37" t="n">
-        <v>0.898</v>
+        <v>0.874</v>
       </c>
     </row>
     <row r="38">
@@ -738,7 +738,7 @@
         <v>580</v>
       </c>
       <c r="B38" t="n">
-        <v>0.837</v>
+        <v>0.823</v>
       </c>
     </row>
     <row r="39">
@@ -746,7 +746,7 @@
         <v>585</v>
       </c>
       <c r="B39" t="n">
-        <v>0.777</v>
+        <v>0.776</v>
       </c>
     </row>
     <row r="40">
@@ -754,7 +754,7 @@
         <v>590</v>
       </c>
       <c r="B40" t="n">
-        <v>0.72</v>
+        <v>0.734</v>
       </c>
     </row>
     <row r="41">
@@ -762,7 +762,7 @@
         <v>595</v>
       </c>
       <c r="B41" t="n">
-        <v>0.668</v>
+        <v>0.696</v>
       </c>
     </row>
     <row r="42">
@@ -770,7 +770,7 @@
         <v>600</v>
       </c>
       <c r="B42" t="n">
-        <v>0.623</v>
+        <v>0.662</v>
       </c>
     </row>
     <row r="43">
@@ -778,7 +778,7 @@
         <v>605</v>
       </c>
       <c r="B43" t="n">
-        <v>0.579</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="44">
@@ -786,7 +786,7 @@
         <v>610</v>
       </c>
       <c r="B44" t="n">
-        <v>0.539</v>
+        <v>0.598</v>
       </c>
     </row>
     <row r="45">
@@ -794,7 +794,7 @@
         <v>615</v>
       </c>
       <c r="B45" t="n">
-        <v>0.505</v>
+        <v>0.5679999999999999</v>
       </c>
     </row>
     <row r="46">
@@ -802,7 +802,7 @@
         <v>620</v>
       </c>
       <c r="B46" t="n">
-        <v>0.472</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="47">
@@ -810,7 +810,7 @@
         <v>625</v>
       </c>
       <c r="B47" t="n">
-        <v>0.443</v>
+        <v>0.511</v>
       </c>
     </row>
     <row r="48">
@@ -818,7 +818,7 @@
         <v>630</v>
       </c>
       <c r="B48" t="n">
-        <v>0.419</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="49">
@@ -826,7 +826,7 @@
         <v>635</v>
       </c>
       <c r="B49" t="n">
-        <v>0.397</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="50">
@@ -834,7 +834,7 @@
         <v>640</v>
       </c>
       <c r="B50" t="n">
-        <v>0.377</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="51">
@@ -842,7 +842,7 @@
         <v>645</v>
       </c>
       <c r="B51" t="n">
-        <v>0.359</v>
+        <v>0.415</v>
       </c>
     </row>
     <row r="52">
@@ -850,7 +850,7 @@
         <v>650</v>
       </c>
       <c r="B52" t="n">
-        <v>0.344</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="53">
@@ -858,7 +858,7 @@
         <v>655</v>
       </c>
       <c r="B53" t="n">
-        <v>0.33</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="54">
@@ -866,7 +866,7 @@
         <v>660</v>
       </c>
       <c r="B54" t="n">
-        <v>0.318</v>
+        <v>0.359</v>
       </c>
     </row>
     <row r="55">
@@ -874,7 +874,7 @@
         <v>665</v>
       </c>
       <c r="B55" t="n">
-        <v>0.308</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="56">
@@ -882,7 +882,7 @@
         <v>670</v>
       </c>
       <c r="B56" t="n">
-        <v>0.298</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="57">
@@ -890,7 +890,7 @@
         <v>675</v>
       </c>
       <c r="B57" t="n">
-        <v>0.29</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="58">
@@ -898,7 +898,7 @@
         <v>680</v>
       </c>
       <c r="B58" t="n">
-        <v>0.282</v>
+        <v>0.307</v>
       </c>
     </row>
     <row r="59">
@@ -906,7 +906,7 @@
         <v>685</v>
       </c>
       <c r="B59" t="n">
-        <v>0.276</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="60">
@@ -914,7 +914,7 @@
         <v>690</v>
       </c>
       <c r="B60" t="n">
-        <v>0.271</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="61">
@@ -922,7 +922,7 @@
         <v>695</v>
       </c>
       <c r="B61" t="n">
-        <v>0.267</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="62">
@@ -930,7 +930,7 @@
         <v>700</v>
       </c>
       <c r="B62" t="n">
-        <v>0.263</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="63">
@@ -938,7 +938,7 @@
         <v>705</v>
       </c>
       <c r="B63" t="n">
-        <v>0.261</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="64">
@@ -946,7 +946,7 @@
         <v>710</v>
       </c>
       <c r="B64" t="n">
-        <v>0.259</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="65">
@@ -954,7 +954,7 @@
         <v>715</v>
       </c>
       <c r="B65" t="n">
-        <v>0.258</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="66">
@@ -962,7 +962,7 @@
         <v>720</v>
       </c>
       <c r="B66" t="n">
-        <v>0.258</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="67">
@@ -970,7 +970,7 @@
         <v>725</v>
       </c>
       <c r="B67" t="n">
-        <v>0.258</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="68">
@@ -978,7 +978,7 @@
         <v>730</v>
       </c>
       <c r="B68" t="n">
-        <v>0.259</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="69">
@@ -986,7 +986,7 @@
         <v>735</v>
       </c>
       <c r="B69" t="n">
-        <v>0.262</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="70">
@@ -994,7 +994,7 @@
         <v>740</v>
       </c>
       <c r="B70" t="n">
-        <v>0.262</v>
+        <v>0.269</v>
       </c>
     </row>
     <row r="71">
@@ -1002,7 +1002,7 @@
         <v>745</v>
       </c>
       <c r="B71" t="n">
-        <v>0.262</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="72">
@@ -1010,7 +1010,7 @@
         <v>750</v>
       </c>
       <c r="B72" t="n">
-        <v>0.262</v>
+        <v>0.268</v>
       </c>
     </row>
     <row r="73">
@@ -1018,7 +1018,7 @@
         <v>755</v>
       </c>
       <c r="B73" t="n">
-        <v>0.261</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="74">
@@ -1026,7 +1026,7 @@
         <v>760</v>
       </c>
       <c r="B74" t="n">
-        <v>0.261</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="75">
@@ -1034,7 +1034,7 @@
         <v>765</v>
       </c>
       <c r="B75" t="n">
-        <v>0.26</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="76">
@@ -1042,7 +1042,7 @@
         <v>770</v>
       </c>
       <c r="B76" t="n">
-        <v>0.26</v>
+        <v>0.266</v>
       </c>
     </row>
     <row r="77">
@@ -1050,7 +1050,7 @@
         <v>775</v>
       </c>
       <c r="B77" t="n">
-        <v>0.259</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="78">
@@ -1058,7 +1058,7 @@
         <v>780</v>
       </c>
       <c r="B78" t="n">
-        <v>0.258</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="79">
@@ -1066,7 +1066,7 @@
         <v>785</v>
       </c>
       <c r="B79" t="n">
-        <v>0.258</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="80">
@@ -1074,7 +1074,7 @@
         <v>790</v>
       </c>
       <c r="B80" t="n">
-        <v>0.257</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="81">
@@ -1082,7 +1082,7 @@
         <v>795</v>
       </c>
       <c r="B81" t="n">
-        <v>0.256</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="82">
@@ -1090,7 +1090,7 @@
         <v>800</v>
       </c>
       <c r="B82" t="n">
-        <v>0.255</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="83">
@@ -1098,7 +1098,7 @@
         <v>805</v>
       </c>
       <c r="B83" t="n">
-        <v>0.255</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="84">
@@ -1106,7 +1106,7 @@
         <v>810</v>
       </c>
       <c r="B84" t="n">
-        <v>0.255</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="85">
@@ -1114,7 +1114,7 @@
         <v>815</v>
       </c>
       <c r="B85" t="n">
-        <v>0.256</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="86">
@@ -1122,7 +1122,7 @@
         <v>820</v>
       </c>
       <c r="B86" t="n">
-        <v>0.256</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="87">
@@ -1130,7 +1130,7 @@
         <v>825</v>
       </c>
       <c r="B87" t="n">
-        <v>0.259</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="88">
@@ -1138,7 +1138,7 @@
         <v>830</v>
       </c>
       <c r="B88" t="n">
-        <v>0.263</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="89">
@@ -1146,7 +1146,7 @@
         <v>835</v>
       </c>
       <c r="B89" t="n">
-        <v>0.265</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="90">
@@ -1154,7 +1154,7 @@
         <v>840</v>
       </c>
       <c r="B90" t="n">
-        <v>0.266</v>
+        <v>0.275</v>
       </c>
     </row>
     <row r="91">
@@ -1162,7 +1162,7 @@
         <v>845</v>
       </c>
       <c r="B91" t="n">
-        <v>0.267</v>
+        <v>0.276</v>
       </c>
     </row>
     <row r="92">
@@ -1170,7 +1170,7 @@
         <v>850</v>
       </c>
       <c r="B92" t="n">
-        <v>0.268</v>
+        <v>0.277</v>
       </c>
     </row>
     <row r="93">
@@ -1178,7 +1178,7 @@
         <v>855</v>
       </c>
       <c r="B93" t="n">
-        <v>0.269</v>
+        <v>0.278</v>
       </c>
     </row>
     <row r="94">
@@ -1186,7 +1186,7 @@
         <v>860</v>
       </c>
       <c r="B94" t="n">
-        <v>0.27</v>
+        <v>0.279</v>
       </c>
     </row>
     <row r="95">
@@ -1194,7 +1194,7 @@
         <v>865</v>
       </c>
       <c r="B95" t="n">
-        <v>0.272</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="96">
@@ -1202,7 +1202,7 @@
         <v>870</v>
       </c>
       <c r="B96" t="n">
-        <v>0.275</v>
+        <v>0.284</v>
       </c>
     </row>
     <row r="97">
@@ -1210,7 +1210,7 @@
         <v>875</v>
       </c>
       <c r="B97" t="n">
-        <v>0.279</v>
+        <v>0.288</v>
       </c>
     </row>
     <row r="98">
@@ -1218,7 +1218,7 @@
         <v>880</v>
       </c>
       <c r="B98" t="n">
-        <v>0.277</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="99">
@@ -1226,7 +1226,7 @@
         <v>885</v>
       </c>
       <c r="B99" t="n">
-        <v>0.278</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="100">
@@ -1234,7 +1234,7 @@
         <v>890</v>
       </c>
       <c r="B100" t="n">
-        <v>0.277</v>
+        <v>0.286</v>
       </c>
     </row>
     <row r="101">
@@ -1242,7 +1242,7 @@
         <v>895</v>
       </c>
       <c r="B101" t="n">
-        <v>0.277</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="102">
@@ -1250,7 +1250,7 @@
         <v>900</v>
       </c>
       <c r="B102" t="n">
-        <v>0.279</v>
+        <v>0.288</v>
       </c>
     </row>
   </sheetData>
